--- a/misc/Prep_record/d_record_aj.xlsx
+++ b/misc/Prep_record/d_record_aj.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Journal\misc\Prep_record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8180CD80-B215-491E-AD87-598BABC857AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8533398-ABE7-4473-86E7-532391218BED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1665" windowWidth="23505" windowHeight="13935" xr2:uid="{4EE19806-0D22-4899-8D8C-A72BB024F1CA}"/>
+    <workbookView xWindow="15855" yWindow="345" windowWidth="12735" windowHeight="13935" xr2:uid="{4EE19806-0D22-4899-8D8C-A72BB024F1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA39453-310A-423B-A0D2-F940EF311F0D}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -440,10 +440,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>0.35</v>
       </c>
       <c r="C5">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -462,10 +462,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>0.85</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,10 +517,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C11">
-        <v>0.82499999999999996</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,10 +539,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.32500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,10 +550,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C14">
-        <v>0.75</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C18">
         <v>0.8</v>
@@ -605,10 +605,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.32500000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="C19">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +616,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C20">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,10 +627,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +649,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,10 +660,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="C24">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,10 +671,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C25">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C26">
         <v>0.8</v>
@@ -696,7 +696,7 @@
         <v>0.35</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +704,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="C28">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,10 +715,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,10 +737,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C31">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,10 +748,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
         <v>0.3</v>
       </c>
       <c r="C33">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -773,7 +773,7 @@
         <v>0.35</v>
       </c>
       <c r="C34">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C35">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>0.35</v>
       </c>
       <c r="C36">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C37">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +814,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C38">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,10 +825,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C39">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>0.3</v>
       </c>
       <c r="C41">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="C42">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,10 +869,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C43">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>0.35</v>
       </c>
       <c r="C44">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C46">
         <v>0.8</v>
@@ -913,7 +913,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C47">
         <v>0.85</v>
@@ -924,10 +924,10 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C48">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,10 +935,10 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C49">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,10 +957,10 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="C51">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +979,10 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C53">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="C59">
         <v>0.8</v>
@@ -1056,7 +1056,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C60">
         <v>0.8</v>
@@ -1067,10 +1067,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C61">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,10 +1078,10 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.35</v>
+        <v>0.375</v>
       </c>
       <c r="C62">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="C67">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1144,10 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.35</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C68">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,10 +1155,10 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.32500000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="C69">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C70">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
